--- a/A3/LCA_Advanced_BIM_to_Python_slabs.xlsx
+++ b/A3/LCA_Advanced_BIM_to_Python_slabs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Studium\DTU\2_Semester\BIM\A2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\BIManalyst_g_22\A3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFEDE12-A922-44AB-84D3-82DBCE11A2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D79D798-A23D-4785-A901-D69F8F0052CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" tabRatio="598" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="578">
   <si>
     <t>Global Warming Potential GWP [kg CO² equ. /Bezugsgröße]</t>
   </si>
@@ -1876,120 +1876,6 @@
       </rPr>
       <t>-eq/m2</t>
     </r>
-  </si>
-  <si>
-    <t>Unknown C25/30</t>
-  </si>
-  <si>
-    <t>Opstropning_60mm:SS04 - Unknown C25/30 (Height: 3.9m)</t>
-  </si>
-  <si>
-    <t>Opstropning_60mm:SS04 - Unknown C25/30 (Height: 4.8m)</t>
-  </si>
-  <si>
-    <t>Opstropning_60mm:SS04 - Unknown C25/30 (Height: 6.0m)</t>
-  </si>
-  <si>
-    <t>SHS-Square Hollow Section-Column:SS02 - Unknown C25/30 (Height: 1.6m)</t>
-  </si>
-  <si>
-    <t>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.9m)</t>
-  </si>
-  <si>
-    <t>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.1m)</t>
-  </si>
-  <si>
-    <t>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.7m)</t>
-  </si>
-  <si>
-    <t>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.2m)</t>
-  </si>
-  <si>
-    <t>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 0.9m)</t>
-  </si>
-  <si>
-    <t>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.0m)</t>
-  </si>
-  <si>
-    <t>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 0.5m)</t>
-  </si>
-  <si>
-    <t>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.5m)</t>
-  </si>
-  <si>
-    <t>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.4m)</t>
-  </si>
-  <si>
-    <t>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 0.8m)</t>
-  </si>
-  <si>
-    <t>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.3m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 480x480mm - Concrete C25/30 (Height: 3.8m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.6m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.8m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 420x420mm - Concrete C25/30 (Height: 3.5m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.5m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.6m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.8m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.5m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.6m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.8m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 480x480mm_Reinforcement - Reinforcement (Height: 3.6m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 480x480mm_Reinforcement - Reinforcement (Height: 3.8m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.6m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.8m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.5m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.5m)</t>
-  </si>
-  <si>
-    <t>Floor:STR - Concrete - 50mm - Concrete C25/30 (Height: 0.05m)</t>
-  </si>
-  <si>
-    <t>Floor:STR - Concrete - 72mm - Concrete C25/30 (Height: 0.072m)</t>
-  </si>
-  <si>
-    <t>Floor:STR - Concrete - 176mm - Concrete C25/30 (Height: 0.176m)</t>
-  </si>
-  <si>
-    <t>Floor:STR - Concrete - 50mm_Reinforcement - Reinforcement (Height: 0.05m)</t>
-  </si>
-  <si>
-    <t>Floor:STR - Concrete - 72mm_Reinforcement - Reinforcement (Height: 0.072m)</t>
-  </si>
-  <si>
-    <t>Floor:STR - Concrete - 176mm_Reinforcement - Reinforcement (Height: 0.176m)</t>
   </si>
 </sst>
 </file>
@@ -3477,75 +3363,6 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3611,6 +3428,75 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3762,7 +3648,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Floor:STR - Concrete - 50mm - Concrete C25/30 (Height: 0.05m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3831,19 +3717,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00000000">
-                  <c:v>1.1148183183184E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000000">
-                  <c:v>1.0769918417738069E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>-1.9924177294043752E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>12.225175024957807</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3863,7 +3749,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Floor:STR - Concrete - 72mm - Concrete C25/30 (Height: 0.072m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3932,19 +3818,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00000000">
-                  <c:v>1.6053383783784958E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000000">
-                  <c:v>1.5508682521542818E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>-2.8690815303422993E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>17.60425203593924</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3964,7 +3850,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Floor:STR - Concrete - 176mm - Concrete C25/30 (Height: 0.176m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4033,19 +3919,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00000000">
-                  <c:v>3.9241604804807678E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000000">
-                  <c:v>3.7910112830438002E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>-7.0133104075033987E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>43.03261608785148</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4065,7 +3951,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Floor:STR - Concrete - 50mm_Reinforcement - Reinforcement (Height: 0.05m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4134,19 +4020,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00000000">
-                  <c:v>4.6151652357471085E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000000">
-                  <c:v>2.903254059630658E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>1.0835022038820524E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>4.6441977763434146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4166,7 +4052,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Floor:STR - Concrete - 72mm_Reinforcement - Reinforcement (Height: 0.072m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4235,19 +4121,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00000000">
-                  <c:v>6.6458379394758356E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000000">
-                  <c:v>4.180685845868148E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>1.5602431735901557E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>6.6876447979345173</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4267,7 +4153,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.3m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5643,123 +5529,124 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>RESULTS!$A$14:$A$50</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>Floor:STR - Concrete - 50mm - Concrete C25/30 (Height: 0.05m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Floor:STR - Concrete - 72mm - Concrete C25/30 (Height: 0.072m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Floor:STR - Concrete - 176mm - Concrete C25/30 (Height: 0.176m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Floor:STR - Concrete - 50mm_Reinforcement - Reinforcement (Height: 0.05m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Floor:STR - Concrete - 72mm_Reinforcement - Reinforcement (Height: 0.072m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Floor:STR - Concrete - 176mm_Reinforcement - Reinforcement (Height: 0.176m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Square Column:STR - Concrete Column - 480x480mm - Concrete C25/30 (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm - Concrete C25/30 (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Square Column:STR - Concrete Column - 480x480mm_Reinforcement - Reinforcement (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Square Column:STR - Concrete Column - 480x480mm_Reinforcement - Reinforcement (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Opstropning_60mm:SS04 - Unknown C25/30 (Height: 3.9m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Opstropning_60mm:SS04 - Unknown C25/30 (Height: 4.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Opstropning_60mm:SS04 - Unknown C25/30 (Height: 6.0m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>SHS-Square Hollow Section-Column:SS02 - Unknown C25/30 (Height: 1.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.9m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.1m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.7m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.2m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 0.9m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.0m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 0.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.4m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 0.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.3m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5768,70 +5655,70 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>12.225175024957807</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.60425203593924</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.03261608785148</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6441977763434146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6876447979345173</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.347576172728822</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>214.06281468701118</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>316.87653664690635</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>334.48078868284563</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150.95646120817898</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>308.07441062893668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49.118274135348315</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.844727843246979</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.749783857252446</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66.845486660836215</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70.561464108281129</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87.309679742515826</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>92.162556805609597</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>136.42795387786413</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>144.00728464885663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>64.992761361260278</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>132.63828849236788</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -6779,123 +6666,124 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>RESULTS!$A$14:$A$50</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>Floor:STR - Concrete - 50mm - Concrete C25/30 (Height: 0.05m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Floor:STR - Concrete - 72mm - Concrete C25/30 (Height: 0.072m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Floor:STR - Concrete - 176mm - Concrete C25/30 (Height: 0.176m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Floor:STR - Concrete - 50mm_Reinforcement - Reinforcement (Height: 0.05m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Floor:STR - Concrete - 72mm_Reinforcement - Reinforcement (Height: 0.072m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Floor:STR - Concrete - 176mm_Reinforcement - Reinforcement (Height: 0.176m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Square Column:STR - Concrete Column - 480x480mm - Concrete C25/30 (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm - Concrete C25/30 (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Square Column:STR - Concrete Column - 480x480mm_Reinforcement - Reinforcement (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Square Column:STR - Concrete Column - 480x480mm_Reinforcement - Reinforcement (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Opstropning_60mm:SS04 - Unknown C25/30 (Height: 3.9m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Opstropning_60mm:SS04 - Unknown C25/30 (Height: 4.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Opstropning_60mm:SS04 - Unknown C25/30 (Height: 6.0m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>SHS-Square Hollow Section-Column:SS02 - Unknown C25/30 (Height: 1.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.9m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.1m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.7m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.2m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 0.9m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.0m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 0.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.4m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 0.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.3m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7228,19 +7116,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00000000">
-                  <c:v>2.2394805426602611</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0000">
-                  <c:v>0.1291701926228126</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.0000">
-                  <c:v>0.20384241658014823</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2368.6507352830731</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9768,8 +9656,8 @@
   </sheetPr>
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:M4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14"/>
@@ -10045,32 +9933,24 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A14" s="134" t="s">
-        <v>610</v>
-      </c>
-      <c r="B14" s="136" t="s">
-        <v>554</v>
-      </c>
+      <c r="A14" s="134"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="130" t="str">
         <f>_xlfn.XLOOKUP($B14,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D14" s="137">
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="143">
-        <v>18</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D14" s="137"/>
+      <c r="E14" s="143"/>
       <c r="F14" s="138">
         <v>0</v>
       </c>
       <c r="G14" s="130" t="str">
         <f>_xlfn.XLOOKUP($C14,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H14" s="130">
         <f>$D14*_xlfn.XLOOKUP($C14,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>11.148183183184001</v>
+        <v>0</v>
       </c>
       <c r="I14" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10078,7 +9958,7 @@
       </c>
       <c r="J14" s="130">
         <f>$D14*_xlfn.XLOOKUP($C14,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>1.0769918417738069</v>
+        <v>0</v>
       </c>
       <c r="K14" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10086,7 +9966,7 @@
       </c>
       <c r="L14" s="130">
         <f>$D14*_xlfn.XLOOKUP($C14,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-0.19924177294043752</v>
+        <v>0</v>
       </c>
       <c r="M14" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10094,40 +9974,32 @@
       </c>
       <c r="O14" s="153">
         <f>$D14*_xlfn.XLOOKUP($C14,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>3.3758962059383654E-2</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="154">
         <f>_xlfn.XLOOKUP($C14,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A15" s="134" t="s">
-        <v>611</v>
-      </c>
-      <c r="B15" s="132" t="s">
-        <v>554</v>
-      </c>
+      <c r="A15" s="134"/>
+      <c r="B15" s="132"/>
       <c r="C15" s="130" t="str">
         <f>_xlfn.XLOOKUP($B15,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D15" s="137">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="E15" s="143">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D15" s="137"/>
+      <c r="E15" s="143"/>
       <c r="F15" s="138">
         <v>0</v>
       </c>
       <c r="G15" s="130" t="str">
         <f>_xlfn.XLOOKUP($C15,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H15" s="130">
         <f>$D15*_xlfn.XLOOKUP($C15,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>16.053383783784959</v>
+        <v>0</v>
       </c>
       <c r="I15" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10135,7 +10007,7 @@
       </c>
       <c r="J15" s="130">
         <f>$D15*_xlfn.XLOOKUP($C15,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>1.5508682521542818</v>
+        <v>0</v>
       </c>
       <c r="K15" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10143,7 +10015,7 @@
       </c>
       <c r="L15" s="130">
         <f>$D15*_xlfn.XLOOKUP($C15,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-0.28690815303422995</v>
+        <v>0</v>
       </c>
       <c r="M15" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10151,40 +10023,32 @@
       </c>
       <c r="O15" s="153">
         <f>$D15*_xlfn.XLOOKUP($C15,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>4.8612905365512452E-2</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="155">
         <f>_xlfn.XLOOKUP($C15,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A16" s="134" t="s">
-        <v>612</v>
-      </c>
-      <c r="B16" s="132" t="s">
-        <v>554</v>
-      </c>
+      <c r="A16" s="134"/>
+      <c r="B16" s="132"/>
       <c r="C16" s="130" t="str">
         <f>_xlfn.XLOOKUP($B16,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D16" s="137">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="E16" s="143">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D16" s="137"/>
+      <c r="E16" s="143"/>
       <c r="F16" s="138">
         <v>0</v>
       </c>
       <c r="G16" s="130" t="str">
         <f>_xlfn.XLOOKUP($C16,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H16" s="130">
         <f>$D16*_xlfn.XLOOKUP($C16,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>39.241604804807679</v>
+        <v>0</v>
       </c>
       <c r="I16" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10192,7 +10056,7 @@
       </c>
       <c r="J16" s="130">
         <f>$D16*_xlfn.XLOOKUP($C16,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>3.7910112830438001</v>
+        <v>0</v>
       </c>
       <c r="K16" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10200,7 +10064,7 @@
       </c>
       <c r="L16" s="130">
         <f>$D16*_xlfn.XLOOKUP($C16,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-0.70133104075033992</v>
+        <v>0</v>
       </c>
       <c r="M16" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10208,40 +10072,32 @@
       </c>
       <c r="O16" s="153">
         <f>$D16*_xlfn.XLOOKUP($C16,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.11883154644903045</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="155">
         <f>_xlfn.XLOOKUP($C16,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A17" s="134" t="s">
-        <v>613</v>
-      </c>
-      <c r="B17" s="132" t="s">
-        <v>549</v>
-      </c>
+      <c r="A17" s="134"/>
+      <c r="B17" s="132"/>
       <c r="C17" s="130" t="str">
         <f>_xlfn.XLOOKUP($B17,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D17" s="137">
-        <v>7.5</v>
-      </c>
-      <c r="E17" s="143">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D17" s="137"/>
+      <c r="E17" s="143"/>
       <c r="F17" s="138">
         <v>0</v>
       </c>
       <c r="G17" s="130" t="str">
         <f>_xlfn.XLOOKUP($C17,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H17" s="130">
         <f>$D17*_xlfn.XLOOKUP($C17,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>4.6151652357471082</v>
+        <v>0</v>
       </c>
       <c r="I17" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10249,7 +10105,7 @@
       </c>
       <c r="J17" s="130">
         <f>$D17*_xlfn.XLOOKUP($C17,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>2.903254059630658E-2</v>
+        <v>0</v>
       </c>
       <c r="K17" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10257,7 +10113,7 @@
       </c>
       <c r="L17" s="130">
         <f>$D17*_xlfn.XLOOKUP($C17,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>1.0835022038820523</v>
+        <v>0</v>
       </c>
       <c r="M17" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10265,40 +10121,32 @@
       </c>
       <c r="O17" s="153">
         <f>$D17*_xlfn.XLOOKUP($C17,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>4.32244175925336E-2</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="155">
         <f>_xlfn.XLOOKUP($C17,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A18" s="134" t="s">
-        <v>614</v>
-      </c>
-      <c r="B18" s="132" t="s">
-        <v>549</v>
-      </c>
+      <c r="A18" s="134"/>
+      <c r="B18" s="132"/>
       <c r="C18" s="130" t="str">
         <f>_xlfn.XLOOKUP($B18,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D18" s="137">
-        <v>10.8</v>
-      </c>
-      <c r="E18" s="143">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D18" s="137"/>
+      <c r="E18" s="143"/>
       <c r="F18" s="138">
         <v>0</v>
       </c>
       <c r="G18" s="130" t="str">
         <f>_xlfn.XLOOKUP($C18,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H18" s="130">
         <f>$D18*_xlfn.XLOOKUP($C18,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>6.645837939475836</v>
+        <v>0</v>
       </c>
       <c r="I18" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10306,7 +10154,7 @@
       </c>
       <c r="J18" s="130">
         <f>$D18*_xlfn.XLOOKUP($C18,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>4.1806858458681477E-2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10314,7 +10162,7 @@
       </c>
       <c r="L18" s="130">
         <f>$D18*_xlfn.XLOOKUP($C18,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>1.5602431735901556</v>
+        <v>0</v>
       </c>
       <c r="M18" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10322,40 +10170,32 @@
       </c>
       <c r="O18" s="153">
         <f>$D18*_xlfn.XLOOKUP($C18,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>6.2243161333248392E-2</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="155">
         <f>_xlfn.XLOOKUP($C18,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A19" s="134" t="s">
-        <v>615</v>
-      </c>
-      <c r="B19" s="132" t="s">
-        <v>549</v>
-      </c>
+      <c r="A19" s="134"/>
+      <c r="B19" s="132"/>
       <c r="C19" s="130" t="str">
         <f>_xlfn.XLOOKUP($B19,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D19" s="137">
-        <v>26.4</v>
-      </c>
-      <c r="E19" s="143">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D19" s="137"/>
+      <c r="E19" s="143"/>
       <c r="F19" s="138">
         <v>0</v>
       </c>
       <c r="G19" s="130" t="str">
         <f>_xlfn.XLOOKUP($C19,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H19" s="130">
         <f>$D19*_xlfn.XLOOKUP($C19,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>16.245381629829819</v>
+        <v>0</v>
       </c>
       <c r="I19" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10363,7 +10203,7 @@
       </c>
       <c r="J19" s="130">
         <f>$D19*_xlfn.XLOOKUP($C19,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.10219454289899915</v>
+        <v>0</v>
       </c>
       <c r="K19" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10371,7 +10211,7 @@
       </c>
       <c r="L19" s="130">
         <f>$D19*_xlfn.XLOOKUP($C19,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>3.8139277576648243</v>
+        <v>0</v>
       </c>
       <c r="M19" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10379,40 +10219,32 @@
       </c>
       <c r="O19" s="153">
         <f>$D19*_xlfn.XLOOKUP($C19,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.15214994992571829</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="155">
         <f>_xlfn.XLOOKUP($C19,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A20" s="134" t="s">
-        <v>594</v>
-      </c>
-      <c r="B20" s="132" t="s">
-        <v>554</v>
-      </c>
+      <c r="A20" s="134"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="130" t="str">
         <f>_xlfn.XLOOKUP($B20,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D20" s="139">
-        <v>0.87549999999999994</v>
-      </c>
-      <c r="E20" s="143">
-        <v>38</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D20" s="139"/>
+      <c r="E20" s="143"/>
       <c r="F20" s="138">
         <v>0</v>
       </c>
       <c r="G20" s="130" t="str">
         <f>_xlfn.XLOOKUP($C20,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H20" s="130">
         <f>$D20*_xlfn.XLOOKUP($C20,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>195.20468753755182</v>
+        <v>0</v>
       </c>
       <c r="I20" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10420,7 +10252,7 @@
       </c>
       <c r="J20" s="130">
         <f>$D20*_xlfn.XLOOKUP($C20,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>18.858127149459357</v>
+        <v>0</v>
       </c>
       <c r="K20" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10428,7 +10260,7 @@
       </c>
       <c r="L20" s="130">
         <f>$D20*_xlfn.XLOOKUP($C20,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-3.4887234441870603</v>
+        <v>0</v>
       </c>
       <c r="M20" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10436,40 +10268,32 @@
       </c>
       <c r="O20" s="153">
         <f>$D20*_xlfn.XLOOKUP($C20,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.59111942565980768</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="155">
         <f>_xlfn.XLOOKUP($C20,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A21" s="134" t="s">
-        <v>595</v>
-      </c>
-      <c r="B21" s="132" t="s">
-        <v>554</v>
-      </c>
+      <c r="A21" s="134"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="130" t="str">
         <f>_xlfn.XLOOKUP($B21,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D21" s="139">
-        <v>1.296</v>
-      </c>
-      <c r="E21" s="143">
-        <v>87</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D21" s="139"/>
+      <c r="E21" s="143"/>
       <c r="F21" s="138">
         <v>0</v>
       </c>
       <c r="G21" s="130" t="str">
         <f>_xlfn.XLOOKUP($C21,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H21" s="130">
         <f>$D21*_xlfn.XLOOKUP($C21,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>288.96090810812927</v>
+        <v>0</v>
       </c>
       <c r="I21" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10477,7 +10301,7 @@
       </c>
       <c r="J21" s="130">
         <f>$D21*_xlfn.XLOOKUP($C21,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>27.915628538777074</v>
+        <v>0</v>
       </c>
       <c r="K21" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10485,7 +10309,7 @@
       </c>
       <c r="L21" s="130">
         <f>$D21*_xlfn.XLOOKUP($C21,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-5.1643467546161403</v>
+        <v>0</v>
       </c>
       <c r="M21" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10493,40 +10317,32 @@
       </c>
       <c r="O21" s="153">
         <f>$D21*_xlfn.XLOOKUP($C21,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.87503229657922432</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="155">
         <f>_xlfn.XLOOKUP($C21,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A22" s="134" t="s">
-        <v>596</v>
-      </c>
-      <c r="B22" s="132" t="s">
-        <v>554</v>
-      </c>
+      <c r="A22" s="134"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="130" t="str">
         <f>_xlfn.XLOOKUP($B22,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D22" s="139">
-        <v>1.3680000000000001</v>
-      </c>
-      <c r="E22" s="143">
-        <v>83</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D22" s="139"/>
+      <c r="E22" s="143"/>
       <c r="F22" s="138">
         <v>0</v>
       </c>
       <c r="G22" s="130" t="str">
         <f>_xlfn.XLOOKUP($C22,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H22" s="130">
         <f>$D22*_xlfn.XLOOKUP($C22,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>305.01429189191424</v>
+        <v>0</v>
       </c>
       <c r="I22" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10534,7 +10350,7 @@
       </c>
       <c r="J22" s="130">
         <f>$D22*_xlfn.XLOOKUP($C22,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>29.466496790931359</v>
+        <v>0</v>
       </c>
       <c r="K22" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10542,7 +10358,7 @@
       </c>
       <c r="L22" s="130">
         <f>$D22*_xlfn.XLOOKUP($C22,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-5.4512549076503705</v>
+        <v>0</v>
       </c>
       <c r="M22" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10550,40 +10366,32 @@
       </c>
       <c r="O22" s="153">
         <f>$D22*_xlfn.XLOOKUP($C22,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.92364520194473676</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="155">
         <f>_xlfn.XLOOKUP($C22,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A23" s="134" t="s">
-        <v>597</v>
-      </c>
-      <c r="B23" s="132" t="s">
-        <v>554</v>
-      </c>
+      <c r="A23" s="134"/>
+      <c r="B23" s="132"/>
       <c r="C23" s="130" t="str">
         <f>_xlfn.XLOOKUP($B23,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D23" s="139">
-        <v>0.61739999999999995</v>
-      </c>
-      <c r="E23" s="143">
-        <v>10</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D23" s="139"/>
+      <c r="E23" s="143"/>
       <c r="F23" s="138">
         <v>0</v>
       </c>
       <c r="G23" s="130" t="str">
         <f>_xlfn.XLOOKUP($C23,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H23" s="130">
         <f>$D23*_xlfn.XLOOKUP($C23,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>137.65776594595602</v>
+        <v>0</v>
       </c>
       <c r="I23" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10591,7 +10399,7 @@
       </c>
       <c r="J23" s="130">
         <f>$D23*_xlfn.XLOOKUP($C23,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>13.298695262222965</v>
+        <v>0</v>
       </c>
       <c r="K23" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10599,7 +10407,7 @@
       </c>
       <c r="L23" s="130">
         <f>$D23*_xlfn.XLOOKUP($C23,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-2.4602374122685222</v>
+        <v>0</v>
       </c>
       <c r="M23" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10607,40 +10415,32 @@
       </c>
       <c r="O23" s="153">
         <f>$D23*_xlfn.XLOOKUP($C23,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.41685566350926928</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="155">
         <f>_xlfn.XLOOKUP($C23,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A24" s="134" t="s">
-        <v>598</v>
-      </c>
-      <c r="B24" s="132" t="s">
-        <v>554</v>
-      </c>
+      <c r="A24" s="134"/>
+      <c r="B24" s="132"/>
       <c r="C24" s="130" t="str">
         <f>_xlfn.XLOOKUP($B24,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D24" s="139">
-        <v>1.26</v>
-      </c>
-      <c r="E24" s="143">
-        <v>34</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D24" s="139"/>
+      <c r="E24" s="143"/>
       <c r="F24" s="138">
         <v>0</v>
       </c>
       <c r="G24" s="130" t="str">
         <f>_xlfn.XLOOKUP($C24,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H24" s="130">
         <f>$D24*_xlfn.XLOOKUP($C24,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>280.93421621623679</v>
+        <v>0</v>
       </c>
       <c r="I24" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10648,7 +10448,7 @@
       </c>
       <c r="J24" s="130">
         <f>$D24*_xlfn.XLOOKUP($C24,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>27.140194412699934</v>
+        <v>0</v>
       </c>
       <c r="K24" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10656,7 +10456,7 @@
       </c>
       <c r="L24" s="130">
         <f>$D24*_xlfn.XLOOKUP($C24,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-5.0208926780990248</v>
+        <v>0</v>
       </c>
       <c r="M24" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10664,40 +10464,32 @@
       </c>
       <c r="O24" s="153">
         <f>$D24*_xlfn.XLOOKUP($C24,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.85072584389646799</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="155">
         <f>_xlfn.XLOOKUP($C24,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A25" s="134" t="s">
-        <v>599</v>
-      </c>
-      <c r="B25" s="132" t="s">
-        <v>549</v>
-      </c>
+      <c r="A25" s="134"/>
+      <c r="B25" s="132"/>
       <c r="C25" s="130" t="str">
         <f>_xlfn.XLOOKUP($B25,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D25" s="139">
-        <v>79.322000000000003</v>
-      </c>
-      <c r="E25" s="143">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D25" s="139"/>
+      <c r="E25" s="143"/>
       <c r="F25" s="138">
         <v>0</v>
       </c>
       <c r="G25" s="130" t="str">
         <f>_xlfn.XLOOKUP($C25,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H25" s="130">
         <f>$D25*_xlfn.XLOOKUP($C25,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>48.81121824399095</v>
+        <v>0</v>
       </c>
       <c r="I25" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10705,7 +10497,7 @@
       </c>
       <c r="J25" s="130">
         <f>$D25*_xlfn.XLOOKUP($C25,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.30705589135736405</v>
+        <v>0</v>
       </c>
       <c r="K25" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10713,7 +10505,7 @@
       </c>
       <c r="L25" s="130">
         <f>$D25*_xlfn.XLOOKUP($C25,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>11.459408242177622</v>
+        <v>0</v>
       </c>
       <c r="M25" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10721,40 +10513,32 @@
       </c>
       <c r="O25" s="153">
         <f>$D25*_xlfn.XLOOKUP($C25,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.45715296696999341</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="155">
         <f>_xlfn.XLOOKUP($C25,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A26" s="134" t="s">
-        <v>600</v>
-      </c>
-      <c r="B26" s="132" t="s">
-        <v>549</v>
-      </c>
+      <c r="A26" s="134"/>
+      <c r="B26" s="132"/>
       <c r="C26" s="130" t="str">
         <f>_xlfn.XLOOKUP($B26,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D26" s="139">
-        <v>83.724999999999994</v>
-      </c>
-      <c r="E26" s="143">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D26" s="139"/>
+      <c r="E26" s="143"/>
       <c r="F26" s="138">
         <v>0</v>
       </c>
       <c r="G26" s="130" t="str">
         <f>_xlfn.XLOOKUP($C26,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H26" s="130">
         <f>$D26*_xlfn.XLOOKUP($C26,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>51.520627915056878</v>
+        <v>0</v>
       </c>
       <c r="I26" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10762,7 +10546,7 @@
       </c>
       <c r="J26" s="130">
         <f>$D26*_xlfn.XLOOKUP($C26,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.32409992819010242</v>
+        <v>0</v>
       </c>
       <c r="K26" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10770,7 +10554,7 @@
       </c>
       <c r="L26" s="130">
         <f>$D26*_xlfn.XLOOKUP($C26,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>12.095496269336644</v>
+        <v>0</v>
       </c>
       <c r="M26" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10778,40 +10562,32 @@
       </c>
       <c r="O26" s="153">
         <f>$D26*_xlfn.XLOOKUP($C26,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.48252858172465007</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="155">
         <f>_xlfn.XLOOKUP($C26,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="14" customHeight="1">
-      <c r="A27" s="134" t="s">
-        <v>601</v>
-      </c>
-      <c r="B27" s="132" t="s">
-        <v>549</v>
-      </c>
+      <c r="A27" s="134"/>
+      <c r="B27" s="132"/>
       <c r="C27" s="130" t="str">
         <f>_xlfn.XLOOKUP($B27,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D27" s="139">
-        <v>77.111999999999995</v>
-      </c>
-      <c r="E27" s="143">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D27" s="139"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="138">
         <v>0</v>
       </c>
       <c r="G27" s="130" t="str">
         <f>_xlfn.XLOOKUP($C27,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H27" s="130">
         <f>$D27*_xlfn.XLOOKUP($C27,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>47.45128288785746</v>
+        <v>0</v>
       </c>
       <c r="I27" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10819,7 +10595,7 @@
       </c>
       <c r="J27" s="130">
         <f>$D27*_xlfn.XLOOKUP($C27,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.29850096939498572</v>
+        <v>0</v>
       </c>
       <c r="K27" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10827,7 +10603,7 @@
       </c>
       <c r="L27" s="130">
         <f>$D27*_xlfn.XLOOKUP($C27,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>11.14013625943371</v>
+        <v>0</v>
       </c>
       <c r="M27" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10835,40 +10611,32 @@
       </c>
       <c r="O27" s="153">
         <f>$D27*_xlfn.XLOOKUP($C27,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.44441617191939348</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="155">
         <f>_xlfn.XLOOKUP($C27,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A28" s="134" t="s">
-        <v>602</v>
-      </c>
-      <c r="B28" s="132" t="s">
-        <v>549</v>
-      </c>
+      <c r="A28" s="134"/>
+      <c r="B28" s="132"/>
       <c r="C28" s="130" t="str">
         <f>_xlfn.XLOOKUP($B28,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D28" s="139">
-        <v>107.95</v>
-      </c>
-      <c r="E28" s="143">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D28" s="139"/>
+      <c r="E28" s="143"/>
       <c r="F28" s="138">
         <v>0</v>
       </c>
       <c r="G28" s="130" t="str">
         <f>_xlfn.XLOOKUP($C28,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H28" s="130">
         <f>$D28*_xlfn.XLOOKUP($C28,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>66.427611626520047</v>
+        <v>0</v>
       </c>
       <c r="I28" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10876,7 +10644,7 @@
       </c>
       <c r="J28" s="130">
         <f>$D28*_xlfn.XLOOKUP($C28,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.41787503431617273</v>
+        <v>0</v>
       </c>
       <c r="K28" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10884,7 +10652,7 @@
       </c>
       <c r="L28" s="130">
         <f>$D28*_xlfn.XLOOKUP($C28,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>15.595208387875674</v>
+        <v>0</v>
       </c>
       <c r="M28" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10892,40 +10660,32 @@
       </c>
       <c r="O28" s="153">
         <f>$D28*_xlfn.XLOOKUP($C28,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.62214345054853371</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="155">
         <f>_xlfn.XLOOKUP($C28,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A29" s="134" t="s">
-        <v>603</v>
-      </c>
-      <c r="B29" s="132" t="s">
-        <v>549</v>
-      </c>
+      <c r="A29" s="134"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="130" t="str">
         <f>_xlfn.XLOOKUP($B29,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D29" s="139">
-        <v>113.95100000000001</v>
-      </c>
-      <c r="E29" s="143">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D29" s="139"/>
+      <c r="E29" s="143"/>
       <c r="F29" s="138">
         <v>0</v>
       </c>
       <c r="G29" s="130" t="str">
         <f>_xlfn.XLOOKUP($C29,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H29" s="130">
         <f>$D29*_xlfn.XLOOKUP($C29,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>70.120359170482502</v>
+        <v>0</v>
       </c>
       <c r="I29" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10933,7 +10693,7 @@
       </c>
       <c r="J29" s="130">
         <f>$D29*_xlfn.XLOOKUP($C29,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.4411049377986308</v>
+        <v>0</v>
       </c>
       <c r="K29" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10941,7 +10701,7 @@
       </c>
       <c r="L29" s="130">
         <f>$D29*_xlfn.XLOOKUP($C29,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>16.462154617941835</v>
+        <v>0</v>
       </c>
       <c r="M29" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10949,40 +10709,32 @@
       </c>
       <c r="O29" s="153">
         <f>$D29*_xlfn.XLOOKUP($C29,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.65672874787823954</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="155">
         <f>_xlfn.XLOOKUP($C29,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A30" s="134" t="s">
-        <v>604</v>
-      </c>
-      <c r="B30" s="132" t="s">
-        <v>549</v>
-      </c>
+      <c r="A30" s="134"/>
+      <c r="B30" s="132"/>
       <c r="C30" s="130" t="str">
         <f>_xlfn.XLOOKUP($B30,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D30" s="139">
-        <v>140.99799999999999</v>
-      </c>
-      <c r="E30" s="143">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D30" s="139"/>
+      <c r="E30" s="143"/>
       <c r="F30" s="138">
         <v>0</v>
       </c>
       <c r="G30" s="130" t="str">
         <f>_xlfn.XLOOKUP($C30,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H30" s="130">
         <f>$D30*_xlfn.XLOOKUP($C30,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>86.763875721316097</v>
+        <v>0</v>
       </c>
       <c r="I30" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10990,7 +10742,7 @@
       </c>
       <c r="J30" s="130">
         <f>$D30*_xlfn.XLOOKUP($C30,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.54580402119973792</v>
+        <v>0</v>
       </c>
       <c r="K30" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10998,7 +10750,7 @@
       </c>
       <c r="L30" s="130">
         <f>$D30*_xlfn.XLOOKUP($C30,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>20.369552499061548</v>
+        <v>0</v>
       </c>
       <c r="M30" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11006,40 +10758,32 @@
       </c>
       <c r="O30" s="153">
         <f>$D30*_xlfn.XLOOKUP($C30,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.81260752422827365</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="155">
         <f>_xlfn.XLOOKUP($C30,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A31" s="134" t="s">
-        <v>605</v>
-      </c>
-      <c r="B31" s="132" t="s">
-        <v>549</v>
-      </c>
+      <c r="A31" s="134"/>
+      <c r="B31" s="132"/>
       <c r="C31" s="130" t="str">
         <f>_xlfn.XLOOKUP($B31,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D31" s="139">
-        <v>148.83499999999998</v>
-      </c>
-      <c r="E31" s="143">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D31" s="139"/>
+      <c r="E31" s="143"/>
       <c r="F31" s="138">
         <v>0</v>
       </c>
       <c r="G31" s="130" t="str">
         <f>_xlfn.XLOOKUP($C31,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H31" s="130">
         <f>$D31*_xlfn.XLOOKUP($C31,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>91.586415714989428</v>
+        <v>0</v>
       </c>
       <c r="I31" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11047,7 +10791,7 @@
       </c>
       <c r="J31" s="130">
         <f>$D31*_xlfn.XLOOKUP($C31,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.57614109062017194</v>
+        <v>0</v>
       </c>
       <c r="K31" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11055,7 +10799,7 @@
       </c>
       <c r="L31" s="130">
         <f>$D31*_xlfn.XLOOKUP($C31,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>21.501740068638032</v>
+        <v>0</v>
       </c>
       <c r="M31" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11063,40 +10807,32 @@
       </c>
       <c r="O31" s="153">
         <f>$D31*_xlfn.XLOOKUP($C31,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.85777415898463172</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="155">
         <f>_xlfn.XLOOKUP($C31,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.5">
-      <c r="A32" s="134" t="s">
-        <v>606</v>
-      </c>
-      <c r="B32" s="132" t="s">
-        <v>549</v>
-      </c>
+      <c r="A32" s="134"/>
+      <c r="B32" s="132"/>
       <c r="C32" s="130" t="str">
         <f>_xlfn.XLOOKUP($B32,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D32" s="139">
-        <v>220.32</v>
-      </c>
-      <c r="E32" s="143">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D32" s="139"/>
+      <c r="E32" s="143"/>
       <c r="F32" s="138">
         <v>0</v>
       </c>
       <c r="G32" s="130" t="str">
         <f>_xlfn.XLOOKUP($C32,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H32" s="130">
         <f>$D32*_xlfn.XLOOKUP($C32,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>135.57509396530705</v>
+        <v>0</v>
       </c>
       <c r="I32" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11104,7 +10840,7 @@
       </c>
       <c r="J32" s="130">
         <f>$D32*_xlfn.XLOOKUP($C32,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.85285991255710203</v>
+        <v>0</v>
       </c>
       <c r="K32" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11112,7 +10848,7 @@
       </c>
       <c r="L32" s="130">
         <f>$D32*_xlfn.XLOOKUP($C32,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>31.828960741239172</v>
+        <v>0</v>
       </c>
       <c r="M32" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11120,40 +10856,32 @@
       </c>
       <c r="O32" s="153">
         <f>$D32*_xlfn.XLOOKUP($C32,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>1.2697604911982672</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="155">
         <f>_xlfn.XLOOKUP($C32,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="15.5">
-      <c r="A33" s="134" t="s">
-        <v>607</v>
-      </c>
-      <c r="B33" s="132" t="s">
-        <v>549</v>
-      </c>
+      <c r="A33" s="134"/>
+      <c r="B33" s="132"/>
       <c r="C33" s="130" t="str">
         <f>_xlfn.XLOOKUP($B33,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D33" s="139">
-        <v>232.56000000000003</v>
-      </c>
-      <c r="E33" s="143">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D33" s="139"/>
+      <c r="E33" s="143"/>
       <c r="F33" s="138">
         <v>0</v>
       </c>
       <c r="G33" s="130" t="str">
         <f>_xlfn.XLOOKUP($C33,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H33" s="130">
         <f>$D33*_xlfn.XLOOKUP($C33,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>143.10704363004635</v>
+        <v>0</v>
       </c>
       <c r="I33" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11161,7 +10889,7 @@
       </c>
       <c r="J33" s="130">
         <f>$D33*_xlfn.XLOOKUP($C33,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.90024101881027452</v>
+        <v>0</v>
       </c>
       <c r="K33" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11169,7 +10897,7 @@
       </c>
       <c r="L33" s="130">
         <f>$D33*_xlfn.XLOOKUP($C33,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>33.597236337974685</v>
+        <v>0</v>
       </c>
       <c r="M33" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11177,40 +10905,32 @@
       </c>
       <c r="O33" s="153">
         <f>$D33*_xlfn.XLOOKUP($C33,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>1.3403027407092822</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="155">
         <f>_xlfn.XLOOKUP($C33,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.5">
-      <c r="A34" s="134" t="s">
-        <v>608</v>
-      </c>
-      <c r="B34" s="132" t="s">
-        <v>549</v>
-      </c>
+      <c r="A34" s="134"/>
+      <c r="B34" s="132"/>
       <c r="C34" s="130" t="str">
         <f>_xlfn.XLOOKUP($B34,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D34" s="139">
-        <v>104.958</v>
-      </c>
-      <c r="E34" s="143">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D34" s="139"/>
+      <c r="E34" s="143"/>
       <c r="F34" s="138">
         <v>0</v>
       </c>
       <c r="G34" s="130" t="str">
         <f>_xlfn.XLOOKUP($C34,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H34" s="130">
         <f>$D34*_xlfn.XLOOKUP($C34,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>64.586468375139333</v>
+        <v>0</v>
       </c>
       <c r="I34" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11218,7 +10938,7 @@
       </c>
       <c r="J34" s="130">
         <f>$D34*_xlfn.XLOOKUP($C34,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.40629298612095277</v>
+        <v>0</v>
       </c>
       <c r="K34" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11226,7 +10946,7 @@
       </c>
       <c r="L34" s="130">
         <f>$D34*_xlfn.XLOOKUP($C34,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>15.162963242006994</v>
+        <v>0</v>
       </c>
       <c r="M34" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11234,41 +10954,33 @@
       </c>
       <c r="O34" s="153">
         <f>$D34*_xlfn.XLOOKUP($C34,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.60489978955695223</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="155">
         <f>_xlfn.XLOOKUP($C34,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
       <c r="R34" s="22"/>
     </row>
     <row r="35" spans="1:18" ht="15.5">
-      <c r="A35" s="134" t="s">
-        <v>609</v>
-      </c>
-      <c r="B35" s="132" t="s">
-        <v>549</v>
-      </c>
+      <c r="A35" s="134"/>
+      <c r="B35" s="132"/>
       <c r="C35" s="130" t="str">
         <f>_xlfn.XLOOKUP($B35,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D35" s="139">
-        <v>214.2</v>
-      </c>
-      <c r="E35" s="143">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D35" s="139"/>
+      <c r="E35" s="143"/>
       <c r="F35" s="138">
         <v>0</v>
       </c>
       <c r="G35" s="130" t="str">
         <f>_xlfn.XLOOKUP($C35,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H35" s="130">
         <f>$D35*_xlfn.XLOOKUP($C35,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>131.80911913293738</v>
+        <v>0</v>
       </c>
       <c r="I35" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11276,7 +10988,7 @@
       </c>
       <c r="J35" s="130">
         <f>$D35*_xlfn.XLOOKUP($C35,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.82916935943051584</v>
+        <v>0</v>
       </c>
       <c r="K35" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11284,7 +10996,7 @@
       </c>
       <c r="L35" s="130">
         <f>$D35*_xlfn.XLOOKUP($C35,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>30.944822942871415</v>
+        <v>0</v>
       </c>
       <c r="M35" s="131" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11293,31 +11005,23 @@
       <c r="N35" s="22"/>
       <c r="O35" s="153">
         <f>$D35*_xlfn.XLOOKUP($C35,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>1.2344893664427596</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="155">
         <f>_xlfn.XLOOKUP($C35,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
       <c r="R35" s="22"/>
     </row>
     <row r="36" spans="1:18" ht="15.5">
-      <c r="A36" s="134" t="s">
-        <v>579</v>
-      </c>
-      <c r="B36" s="132" t="s">
-        <v>578</v>
-      </c>
+      <c r="A36" s="134"/>
+      <c r="B36" s="132"/>
       <c r="C36" s="130" t="str">
         <f>_xlfn.XLOOKUP($B36,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
         <v/>
       </c>
-      <c r="D36" s="139">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="E36" s="143">
-        <v>1</v>
-      </c>
+      <c r="D36" s="139"/>
+      <c r="E36" s="143"/>
       <c r="F36" s="138" t="str">
         <f>_xlfn.XLOOKUP($C36,DATA!$C$6:$C$133,DATA!$E$6:$E$133,"")</f>
         <v/>
@@ -11360,22 +11064,14 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.5">
-      <c r="A37" s="134" t="s">
-        <v>580</v>
-      </c>
-      <c r="B37" s="132" t="s">
-        <v>578</v>
-      </c>
+      <c r="A37" s="134"/>
+      <c r="B37" s="132"/>
       <c r="C37" s="130" t="str">
         <f>_xlfn.XLOOKUP($B37,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
         <v/>
       </c>
-      <c r="D37" s="139">
-        <v>1.72E-2</v>
-      </c>
-      <c r="E37" s="143">
-        <v>4</v>
-      </c>
+      <c r="D37" s="139"/>
+      <c r="E37" s="143"/>
       <c r="F37" s="138" t="str">
         <f>_xlfn.XLOOKUP($C37,DATA!$C$6:$C$133,DATA!$E$6:$E$133,"")</f>
         <v/>
@@ -11418,22 +11114,14 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.5">
-      <c r="A38" s="134" t="s">
-        <v>581</v>
-      </c>
-      <c r="B38" s="132" t="s">
-        <v>578</v>
-      </c>
+      <c r="A38" s="134"/>
+      <c r="B38" s="132"/>
       <c r="C38" s="130" t="str">
         <f>_xlfn.XLOOKUP($B38,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
         <v/>
       </c>
-      <c r="D38" s="139">
-        <v>2.1399999999999999E-2</v>
-      </c>
-      <c r="E38" s="143">
-        <v>2</v>
-      </c>
+      <c r="D38" s="139"/>
+      <c r="E38" s="143"/>
       <c r="F38" s="138" t="str">
         <f>_xlfn.XLOOKUP($C38,DATA!$C$6:$C$133,DATA!$E$6:$E$133,"")</f>
         <v/>
@@ -11476,22 +11164,14 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="15.5">
-      <c r="A39" s="134" t="s">
-        <v>582</v>
-      </c>
-      <c r="B39" s="132" t="s">
-        <v>578</v>
-      </c>
+      <c r="A39" s="134"/>
+      <c r="B39" s="132"/>
       <c r="C39" s="130" t="str">
         <f>_xlfn.XLOOKUP($B39,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
         <v/>
       </c>
-      <c r="D39" s="139">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="E39" s="143">
-        <v>41</v>
-      </c>
+      <c r="D39" s="139"/>
+      <c r="E39" s="143"/>
       <c r="F39" s="138" t="str">
         <f>_xlfn.XLOOKUP($C39,DATA!$C$6:$C$133,DATA!$E$6:$E$133,"")</f>
         <v/>
@@ -11535,22 +11215,14 @@
       <c r="R39" s="22"/>
     </row>
     <row r="40" spans="1:18" ht="15.5">
-      <c r="A40" s="134" t="s">
-        <v>583</v>
-      </c>
-      <c r="B40" s="132" t="s">
-        <v>578</v>
-      </c>
+      <c r="A40" s="134"/>
+      <c r="B40" s="132"/>
       <c r="C40" s="130" t="str">
         <f>_xlfn.XLOOKUP($B40,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
         <v/>
       </c>
-      <c r="D40" s="139">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="E40" s="143">
-        <v>50</v>
-      </c>
+      <c r="D40" s="139"/>
+      <c r="E40" s="143"/>
       <c r="F40" s="138" t="str">
         <f>_xlfn.XLOOKUP($C40,DATA!$C$6:$C$133,DATA!$E$6:$E$133,"")</f>
         <v/>
@@ -11594,22 +11266,14 @@
       <c r="R40" s="22"/>
     </row>
     <row r="41" spans="1:18" ht="15.5">
-      <c r="A41" s="134" t="s">
-        <v>584</v>
-      </c>
-      <c r="B41" s="132" t="s">
-        <v>578</v>
-      </c>
+      <c r="A41" s="134"/>
+      <c r="B41" s="132"/>
       <c r="C41" s="130" t="str">
         <f>_xlfn.XLOOKUP($B41,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
         <v/>
       </c>
-      <c r="D41" s="139">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E41" s="143">
-        <v>61</v>
-      </c>
+      <c r="D41" s="139"/>
+      <c r="E41" s="143"/>
       <c r="F41" s="138" t="str">
         <f>_xlfn.XLOOKUP($C41,DATA!$C$6:$C$133,DATA!$E$6:$E$133,"")</f>
         <v/>
@@ -11655,22 +11319,14 @@
       <c r="R41" s="22"/>
     </row>
     <row r="42" spans="1:18" ht="15.5">
-      <c r="A42" s="134" t="s">
-        <v>585</v>
-      </c>
-      <c r="B42" s="132" t="s">
-        <v>578</v>
-      </c>
+      <c r="A42" s="134"/>
+      <c r="B42" s="132"/>
       <c r="C42" s="130" t="str">
         <f>_xlfn.XLOOKUP($B42,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
         <v/>
       </c>
-      <c r="D42" s="139">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="E42" s="143">
-        <v>41</v>
-      </c>
+      <c r="D42" s="139"/>
+      <c r="E42" s="143"/>
       <c r="F42" s="138" t="str">
         <f>_xlfn.XLOOKUP($C42,DATA!$C$6:$C$133,DATA!$E$6:$E$133,"")</f>
         <v/>
@@ -11713,22 +11369,14 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15.5">
-      <c r="A43" s="134" t="s">
-        <v>586</v>
-      </c>
-      <c r="B43" s="132" t="s">
-        <v>578</v>
-      </c>
+      <c r="A43" s="134"/>
+      <c r="B43" s="132"/>
       <c r="C43" s="130" t="str">
         <f>_xlfn.XLOOKUP($B43,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
         <v/>
       </c>
-      <c r="D43" s="139">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="E43" s="143">
-        <v>41</v>
-      </c>
+      <c r="D43" s="139"/>
+      <c r="E43" s="143"/>
       <c r="F43" s="138" t="str">
         <f>_xlfn.XLOOKUP($C43,DATA!$C$6:$C$133,DATA!$E$6:$E$133,"")</f>
         <v/>
@@ -11771,22 +11419,14 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="15.5">
-      <c r="A44" s="134" t="s">
-        <v>587</v>
-      </c>
-      <c r="B44" s="132" t="s">
-        <v>578</v>
-      </c>
+      <c r="A44" s="134"/>
+      <c r="B44" s="132"/>
       <c r="C44" s="130" t="str">
         <f>_xlfn.XLOOKUP($B44,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
         <v/>
       </c>
-      <c r="D44" s="139">
-        <v>3.3E-3</v>
-      </c>
-      <c r="E44" s="143">
-        <v>76</v>
-      </c>
+      <c r="D44" s="139"/>
+      <c r="E44" s="143"/>
       <c r="F44" s="138" t="str">
         <f>_xlfn.XLOOKUP($C44,DATA!$C$6:$C$133,DATA!$E$6:$E$133,"")</f>
         <v/>
@@ -11829,22 +11469,14 @@
       </c>
     </row>
     <row r="45" spans="1:18" ht="15.5">
-      <c r="A45" s="134" t="s">
-        <v>588</v>
-      </c>
-      <c r="B45" s="132" t="s">
-        <v>578</v>
-      </c>
+      <c r="A45" s="134"/>
+      <c r="B45" s="132"/>
       <c r="C45" s="130" t="str">
         <f>_xlfn.XLOOKUP($B45,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
         <v/>
       </c>
-      <c r="D45" s="139">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="E45" s="143">
-        <v>49</v>
-      </c>
+      <c r="D45" s="139"/>
+      <c r="E45" s="143"/>
       <c r="F45" s="138" t="str">
         <f>_xlfn.XLOOKUP($C45,DATA!$C$6:$C$133,DATA!$E$6:$E$133,"")</f>
         <v/>
@@ -11887,22 +11519,14 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="15.5">
-      <c r="A46" s="134" t="s">
-        <v>589</v>
-      </c>
-      <c r="B46" s="132" t="s">
-        <v>578</v>
-      </c>
+      <c r="A46" s="134"/>
+      <c r="B46" s="132"/>
       <c r="C46" s="130" t="str">
         <f>_xlfn.XLOOKUP($B46,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
         <v/>
       </c>
-      <c r="D46" s="139">
-        <v>1.8E-3</v>
-      </c>
-      <c r="E46" s="143">
-        <v>3</v>
-      </c>
+      <c r="D46" s="139"/>
+      <c r="E46" s="143"/>
       <c r="F46" s="138" t="str">
         <f>_xlfn.XLOOKUP($C46,DATA!$C$6:$C$133,DATA!$E$6:$E$133,"")</f>
         <v/>
@@ -11945,22 +11569,14 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="15.5">
-      <c r="A47" s="134" t="s">
-        <v>590</v>
-      </c>
-      <c r="B47" s="132" t="s">
-        <v>578</v>
-      </c>
+      <c r="A47" s="134"/>
+      <c r="B47" s="132"/>
       <c r="C47" s="130" t="str">
         <f>_xlfn.XLOOKUP($B47,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
         <v/>
       </c>
-      <c r="D47" s="139">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="E47" s="143">
-        <v>15</v>
-      </c>
+      <c r="D47" s="139"/>
+      <c r="E47" s="143"/>
       <c r="F47" s="138" t="str">
         <f>_xlfn.XLOOKUP($C47,DATA!$C$6:$C$133,DATA!$E$6:$E$133,"")</f>
         <v/>
@@ -12003,22 +11619,14 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="15.5">
-      <c r="A48" s="134" t="s">
-        <v>591</v>
-      </c>
-      <c r="B48" s="132" t="s">
-        <v>578</v>
-      </c>
+      <c r="A48" s="134"/>
+      <c r="B48" s="132"/>
       <c r="C48" s="130" t="str">
         <f>_xlfn.XLOOKUP($B48,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
         <v/>
       </c>
-      <c r="D48" s="139">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="E48" s="143">
-        <v>15</v>
-      </c>
+      <c r="D48" s="139"/>
+      <c r="E48" s="143"/>
       <c r="F48" s="138" t="str">
         <f>_xlfn.XLOOKUP($C48,DATA!$C$6:$C$133,DATA!$E$6:$E$133,"")</f>
         <v/>
@@ -12061,22 +11669,14 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="15.5">
-      <c r="A49" s="134" t="s">
-        <v>592</v>
-      </c>
-      <c r="B49" s="132" t="s">
-        <v>578</v>
-      </c>
+      <c r="A49" s="134"/>
+      <c r="B49" s="132"/>
       <c r="C49" s="130" t="str">
         <f>_xlfn.XLOOKUP($B49,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
         <v/>
       </c>
-      <c r="D49" s="139">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E49" s="143">
-        <v>3</v>
-      </c>
+      <c r="D49" s="139"/>
+      <c r="E49" s="143"/>
       <c r="F49" s="138" t="str">
         <f>_xlfn.XLOOKUP($C49,DATA!$C$6:$C$133,DATA!$E$6:$E$133,"")</f>
         <v/>
@@ -12119,22 +11719,14 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="15.5">
-      <c r="A50" s="134" t="s">
-        <v>593</v>
-      </c>
-      <c r="B50" s="132" t="s">
-        <v>578</v>
-      </c>
+      <c r="A50" s="134"/>
+      <c r="B50" s="132"/>
       <c r="C50" s="130" t="str">
         <f>_xlfn.XLOOKUP($B50,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
         <v/>
       </c>
-      <c r="D50" s="139">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="E50" s="143">
-        <v>1</v>
-      </c>
+      <c r="D50" s="139"/>
+      <c r="E50" s="143"/>
       <c r="F50" s="138" t="str">
         <f>_xlfn.XLOOKUP($C50,DATA!$C$6:$C$133,DATA!$E$6:$E$133,"")</f>
         <v/>
@@ -12672,7 +12264,7 @@
   </sheetPr>
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
       <selection pane="topRight" activeCell="D53" sqref="D53"/>
@@ -12809,13 +12401,13 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A14" s="64" t="str">
+      <c r="A14" s="64">
         <f>Input!$A14</f>
-        <v>Floor:STR - Concrete - 50mm - Concrete C25/30 (Height: 0.05m)</v>
+        <v>0</v>
       </c>
       <c r="B14" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A14,Input!H$14:H$60)/1000</f>
-        <v>1.1148183183184E-2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="156"/>
       <c r="D14" s="146">
@@ -12826,37 +12418,37 @@
       </c>
       <c r="F14" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A14,Input!J$14:J$60)/1000</f>
-        <v>1.0769918417738069E-3</v>
+        <v>0</v>
       </c>
       <c r="G14" s="156"/>
       <c r="H14" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A14,Input!L$14:L$60)/1000</f>
-        <v>-1.9924177294043752E-4</v>
+        <v>0</v>
       </c>
       <c r="I14" s="156"/>
       <c r="J14" s="162">
         <f>(B14+D14+F14)*1000</f>
-        <v>12.225175024957807</v>
+        <v>0</v>
       </c>
       <c r="K14" s="161"/>
       <c r="L14" s="17"/>
       <c r="M14" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A14,Input!O$14:O$32)/1000</f>
-        <v>3.3758962059383653E-5</v>
+        <v>0</v>
       </c>
       <c r="N14" s="152">
         <f>Input!$E14*M14*1000</f>
-        <v>0.6076613170689058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A15" s="64" t="str">
+      <c r="A15" s="64">
         <f>Input!$A15</f>
-        <v>Floor:STR - Concrete - 72mm - Concrete C25/30 (Height: 0.072m)</v>
+        <v>0</v>
       </c>
       <c r="B15" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A15,Input!H$14:H$60)/1000</f>
-        <v>1.6053383783784958E-2</v>
+        <v>0</v>
       </c>
       <c r="C15" s="156"/>
       <c r="D15" s="146">
@@ -12867,37 +12459,37 @@
       </c>
       <c r="F15" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A15,Input!J$14:J$60)/1000</f>
-        <v>1.5508682521542818E-3</v>
+        <v>0</v>
       </c>
       <c r="G15" s="156"/>
       <c r="H15" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A15,Input!L$14:L$60)/1000</f>
-        <v>-2.8690815303422993E-4</v>
+        <v>0</v>
       </c>
       <c r="I15" s="156"/>
       <c r="J15" s="162">
         <f t="shared" ref="J15:J50" si="0">(B15+D15+F15)*1000</f>
-        <v>17.60425203593924</v>
+        <v>0</v>
       </c>
       <c r="K15" s="161"/>
       <c r="L15" s="17"/>
       <c r="M15" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A15,Input!O$14:O$32)/1000</f>
-        <v>4.8612905365512454E-5</v>
+        <v>0</v>
       </c>
       <c r="N15" s="152">
         <f>Input!$E15*M15*1000</f>
-        <v>4.8612905365512452E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A16" s="64" t="str">
+      <c r="A16" s="64">
         <f>Input!$A16</f>
-        <v>Floor:STR - Concrete - 176mm - Concrete C25/30 (Height: 0.176m)</v>
+        <v>0</v>
       </c>
       <c r="B16" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A16,Input!H$14:H$60)/1000</f>
-        <v>3.9241604804807678E-2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="156"/>
       <c r="D16" s="146">
@@ -12908,37 +12500,37 @@
       </c>
       <c r="F16" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A16,Input!J$14:J$60)/1000</f>
-        <v>3.7910112830438002E-3</v>
+        <v>0</v>
       </c>
       <c r="G16" s="156"/>
       <c r="H16" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A16,Input!L$14:L$60)/1000</f>
-        <v>-7.0133104075033987E-4</v>
+        <v>0</v>
       </c>
       <c r="I16" s="156"/>
       <c r="J16" s="162">
         <f t="shared" si="0"/>
-        <v>43.03261608785148</v>
+        <v>0</v>
       </c>
       <c r="K16" s="161"/>
       <c r="L16" s="17"/>
       <c r="M16" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A16,Input!O$14:O$32)/1000</f>
-        <v>1.1883154644903045E-4</v>
+        <v>0</v>
       </c>
       <c r="N16" s="152">
         <f>Input!$E16*M16*1000</f>
-        <v>0.11883154644903045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A17" s="64" t="str">
+      <c r="A17" s="64">
         <f>Input!$A17</f>
-        <v>Floor:STR - Concrete - 50mm_Reinforcement - Reinforcement (Height: 0.05m)</v>
+        <v>0</v>
       </c>
       <c r="B17" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A17,Input!H$14:H$60)/1000</f>
-        <v>4.6151652357471085E-3</v>
+        <v>0</v>
       </c>
       <c r="C17" s="156"/>
       <c r="D17" s="146">
@@ -12949,37 +12541,37 @@
       </c>
       <c r="F17" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A17,Input!J$14:J$60)/1000</f>
-        <v>2.903254059630658E-5</v>
+        <v>0</v>
       </c>
       <c r="G17" s="156"/>
       <c r="H17" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A17,Input!L$14:L$60)/1000</f>
-        <v>1.0835022038820524E-3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="156"/>
       <c r="J17" s="162">
         <f t="shared" si="0"/>
-        <v>4.6441977763434146</v>
+        <v>0</v>
       </c>
       <c r="K17" s="161"/>
       <c r="L17" s="17"/>
       <c r="M17" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A17,Input!O$14:O$32)/1000</f>
-        <v>4.3224417592533603E-5</v>
+        <v>0</v>
       </c>
       <c r="N17" s="152">
         <f>Input!$E17*M17*1000</f>
-        <v>4.32244175925336E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A18" s="64" t="str">
+      <c r="A18" s="64">
         <f>Input!$A18</f>
-        <v>Floor:STR - Concrete - 72mm_Reinforcement - Reinforcement (Height: 0.072m)</v>
+        <v>0</v>
       </c>
       <c r="B18" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A18,Input!H$14:H$60)/1000</f>
-        <v>6.6458379394758356E-3</v>
+        <v>0</v>
       </c>
       <c r="C18" s="156"/>
       <c r="D18" s="146">
@@ -12990,37 +12582,37 @@
       </c>
       <c r="F18" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A18,Input!J$14:J$60)/1000</f>
-        <v>4.180685845868148E-5</v>
+        <v>0</v>
       </c>
       <c r="G18" s="156"/>
       <c r="H18" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A18,Input!L$14:L$60)/1000</f>
-        <v>1.5602431735901557E-3</v>
+        <v>0</v>
       </c>
       <c r="I18" s="156"/>
       <c r="J18" s="162">
         <f t="shared" si="0"/>
-        <v>6.6876447979345173</v>
+        <v>0</v>
       </c>
       <c r="K18" s="161"/>
       <c r="L18" s="17"/>
       <c r="M18" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A18,Input!O$14:O$32)/1000</f>
-        <v>6.224316133324839E-5</v>
+        <v>0</v>
       </c>
       <c r="N18" s="152">
         <f>Input!$E18*M18*1000</f>
-        <v>6.2243161333248392E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A19" s="64" t="str">
+      <c r="A19" s="64">
         <f>Input!$A19</f>
-        <v>Floor:STR - Concrete - 176mm_Reinforcement - Reinforcement (Height: 0.176m)</v>
+        <v>0</v>
       </c>
       <c r="B19" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A19,Input!H$14:H$60)/1000</f>
-        <v>1.624538162982982E-2</v>
+        <v>0</v>
       </c>
       <c r="C19" s="156"/>
       <c r="D19" s="146">
@@ -13031,37 +12623,37 @@
       </c>
       <c r="F19" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A19,Input!J$14:J$60)/1000</f>
-        <v>1.0219454289899916E-4</v>
+        <v>0</v>
       </c>
       <c r="G19" s="156"/>
       <c r="H19" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A19,Input!L$14:L$60)/1000</f>
-        <v>3.8139277576648245E-3</v>
+        <v>0</v>
       </c>
       <c r="I19" s="156"/>
       <c r="J19" s="162">
         <f t="shared" si="0"/>
-        <v>16.347576172728822</v>
+        <v>0</v>
       </c>
       <c r="K19" s="161"/>
       <c r="L19" s="17"/>
       <c r="M19" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A19,Input!O$14:O$32)/1000</f>
-        <v>1.521499499257183E-4</v>
+        <v>0</v>
       </c>
       <c r="N19" s="152">
         <f>Input!$E19*M19*1000</f>
-        <v>0.15214994992571829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A20" s="64" t="str">
+      <c r="A20" s="64">
         <f>Input!$A20</f>
-        <v>Square Column:STR - Concrete Column - 480x480mm - Concrete C25/30 (Height: 3.8m)</v>
+        <v>0</v>
       </c>
       <c r="B20" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A20,Input!H$14:H$60)/1000</f>
-        <v>0.19520468753755182</v>
+        <v>0</v>
       </c>
       <c r="C20" s="156"/>
       <c r="D20" s="146">
@@ -13072,37 +12664,37 @@
       </c>
       <c r="F20" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A20,Input!J$14:J$60)/1000</f>
-        <v>1.8858127149459357E-2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="156"/>
       <c r="H20" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A20,Input!L$14:L$60)/1000</f>
-        <v>-3.4887234441870604E-3</v>
+        <v>0</v>
       </c>
       <c r="I20" s="156"/>
       <c r="J20" s="162">
         <f t="shared" si="0"/>
-        <v>214.06281468701118</v>
+        <v>0</v>
       </c>
       <c r="K20" s="161"/>
       <c r="L20" s="17"/>
       <c r="M20" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A20,Input!O$14:O$32)/1000</f>
-        <v>5.9111942565980772E-4</v>
+        <v>0</v>
       </c>
       <c r="N20" s="152">
         <f>Input!$E20*M20*1000</f>
-        <v>22.462538175072694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A21" s="64" t="str">
+      <c r="A21" s="64">
         <f>Input!$A21</f>
-        <v>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.6m)</v>
+        <v>0</v>
       </c>
       <c r="B21" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A21,Input!H$14:H$60)/1000</f>
-        <v>0.2889609081081293</v>
+        <v>0</v>
       </c>
       <c r="C21" s="156"/>
       <c r="D21" s="146">
@@ -13113,37 +12705,37 @@
       </c>
       <c r="F21" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A21,Input!J$14:J$60)/1000</f>
-        <v>2.7915628538777073E-2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="156"/>
       <c r="H21" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A21,Input!L$14:L$60)/1000</f>
-        <v>-5.1643467546161406E-3</v>
+        <v>0</v>
       </c>
       <c r="I21" s="156"/>
       <c r="J21" s="162">
         <f t="shared" si="0"/>
-        <v>316.87653664690635</v>
+        <v>0</v>
       </c>
       <c r="K21" s="161"/>
       <c r="L21" s="17"/>
       <c r="M21" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A21,Input!O$14:O$32)/1000</f>
-        <v>8.7503229657922438E-4</v>
+        <v>0</v>
       </c>
       <c r="N21" s="152">
         <f>Input!$E21*M21*1000</f>
-        <v>76.12780980239252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A22" s="64" t="str">
+      <c r="A22" s="64">
         <f>Input!$A22</f>
-        <v>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.8m)</v>
+        <v>0</v>
       </c>
       <c r="B22" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A22,Input!H$14:H$60)/1000</f>
-        <v>0.30501429189191426</v>
+        <v>0</v>
       </c>
       <c r="C22" s="156"/>
       <c r="D22" s="146">
@@ -13154,37 +12746,37 @@
       </c>
       <c r="F22" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A22,Input!J$14:J$60)/1000</f>
-        <v>2.946649679093136E-2</v>
+        <v>0</v>
       </c>
       <c r="G22" s="156"/>
       <c r="H22" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A22,Input!L$14:L$60)/1000</f>
-        <v>-5.4512549076503707E-3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="156"/>
       <c r="J22" s="162">
         <f t="shared" si="0"/>
-        <v>334.48078868284563</v>
+        <v>0</v>
       </c>
       <c r="K22" s="161"/>
       <c r="L22" s="17"/>
       <c r="M22" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A22,Input!O$14:O$32)/1000</f>
-        <v>9.2364520194473671E-4</v>
+        <v>0</v>
       </c>
       <c r="N22" s="152">
         <f>Input!$E22*M22*1000</f>
-        <v>76.662551761413155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A23" s="64" t="str">
+      <c r="A23" s="64">
         <f>Input!$A23</f>
-        <v>Square Column:STR - Concrete Column - 420x420mm - Concrete C25/30 (Height: 3.5m)</v>
+        <v>0</v>
       </c>
       <c r="B23" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A23,Input!H$14:H$60)/1000</f>
-        <v>0.13765776594595602</v>
+        <v>0</v>
       </c>
       <c r="C23" s="156"/>
       <c r="D23" s="146">
@@ -13195,37 +12787,37 @@
       </c>
       <c r="F23" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A23,Input!J$14:J$60)/1000</f>
-        <v>1.3298695262222965E-2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="156"/>
       <c r="H23" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A23,Input!L$14:L$60)/1000</f>
-        <v>-2.4602374122685224E-3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="156"/>
       <c r="J23" s="162">
         <f t="shared" si="0"/>
-        <v>150.95646120817898</v>
+        <v>0</v>
       </c>
       <c r="K23" s="161"/>
       <c r="L23" s="17"/>
       <c r="M23" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A23,Input!O$14:O$32)/1000</f>
-        <v>4.1685566350926928E-4</v>
+        <v>0</v>
       </c>
       <c r="N23" s="152">
         <f>Input!$E23*M23*1000</f>
-        <v>4.1685566350926919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A24" s="64" t="str">
+      <c r="A24" s="64">
         <f>Input!$A24</f>
-        <v>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.5m)</v>
+        <v>0</v>
       </c>
       <c r="B24" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A24,Input!H$14:H$60)/1000</f>
-        <v>0.28093421621623677</v>
+        <v>0</v>
       </c>
       <c r="C24" s="156"/>
       <c r="D24" s="146">
@@ -13236,37 +12828,37 @@
       </c>
       <c r="F24" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A24,Input!J$14:J$60)/1000</f>
-        <v>2.7140194412699933E-2</v>
+        <v>0</v>
       </c>
       <c r="G24" s="156"/>
       <c r="H24" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A24,Input!L$14:L$60)/1000</f>
-        <v>-5.0208926780990247E-3</v>
+        <v>0</v>
       </c>
       <c r="I24" s="156"/>
       <c r="J24" s="162">
         <f t="shared" si="0"/>
-        <v>308.07441062893668</v>
+        <v>0</v>
       </c>
       <c r="K24" s="161"/>
       <c r="L24" s="17"/>
       <c r="M24" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A24,Input!O$14:O$32)/1000</f>
-        <v>8.5072584389646799E-4</v>
+        <v>0</v>
       </c>
       <c r="N24" s="152">
         <f>Input!$E24*M24*1000</f>
-        <v>28.924678692479912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A25" s="64" t="str">
+      <c r="A25" s="64">
         <f>Input!$A25</f>
-        <v>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.6m)</v>
+        <v>0</v>
       </c>
       <c r="B25" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A25,Input!H$14:H$60)/1000</f>
-        <v>4.8811218243990949E-2</v>
+        <v>0</v>
       </c>
       <c r="C25" s="156"/>
       <c r="D25" s="146">
@@ -13277,37 +12869,37 @@
       </c>
       <c r="F25" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A25,Input!J$14:J$60)/1000</f>
-        <v>3.0705589135736404E-4</v>
+        <v>0</v>
       </c>
       <c r="G25" s="156"/>
       <c r="H25" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A25,Input!L$14:L$60)/1000</f>
-        <v>1.1459408242177622E-2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="156"/>
       <c r="J25" s="162">
         <f t="shared" si="0"/>
-        <v>49.118274135348315</v>
+        <v>0</v>
       </c>
       <c r="K25" s="161"/>
       <c r="L25" s="17"/>
       <c r="M25" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A25,Input!O$14:O$32)/1000</f>
-        <v>4.5715296696999339E-4</v>
+        <v>0</v>
       </c>
       <c r="N25" s="152">
         <f>Input!$E25*M25*1000</f>
-        <v>0.45715296696999341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A26" s="64" t="str">
+      <c r="A26" s="64">
         <f>Input!$A26</f>
-        <v>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.8m)</v>
+        <v>0</v>
       </c>
       <c r="B26" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A26,Input!H$14:H$60)/1000</f>
-        <v>5.1520627915056877E-2</v>
+        <v>0</v>
       </c>
       <c r="C26" s="156"/>
       <c r="D26" s="146">
@@ -13318,37 +12910,37 @@
       </c>
       <c r="F26" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A26,Input!J$14:J$60)/1000</f>
-        <v>3.2409992819010242E-4</v>
+        <v>0</v>
       </c>
       <c r="G26" s="156"/>
       <c r="H26" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A26,Input!L$14:L$60)/1000</f>
-        <v>1.2095496269336644E-2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="156"/>
       <c r="J26" s="162">
         <f t="shared" si="0"/>
-        <v>51.844727843246979</v>
+        <v>0</v>
       </c>
       <c r="K26" s="161"/>
       <c r="L26" s="17"/>
       <c r="M26" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A26,Input!O$14:O$32)/1000</f>
-        <v>4.8252858172465008E-4</v>
+        <v>0</v>
       </c>
       <c r="N26" s="152">
         <f>Input!$E26*M26*1000</f>
-        <v>0.48252858172465007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A27" s="64" t="str">
+      <c r="A27" s="64">
         <f>Input!$A27</f>
-        <v>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.5m)</v>
+        <v>0</v>
       </c>
       <c r="B27" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A27,Input!H$14:H$60)/1000</f>
-        <v>4.7451282887857459E-2</v>
+        <v>0</v>
       </c>
       <c r="C27" s="156"/>
       <c r="D27" s="146">
@@ -13359,37 +12951,37 @@
       </c>
       <c r="F27" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A27,Input!J$14:J$60)/1000</f>
-        <v>2.9850096939498572E-4</v>
+        <v>0</v>
       </c>
       <c r="G27" s="156"/>
       <c r="H27" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A27,Input!L$14:L$60)/1000</f>
-        <v>1.1140136259433711E-2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="156"/>
       <c r="J27" s="162">
         <f t="shared" si="0"/>
-        <v>47.749783857252446</v>
+        <v>0</v>
       </c>
       <c r="K27" s="161"/>
       <c r="L27" s="17"/>
       <c r="M27" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A27,Input!O$14:O$32)/1000</f>
-        <v>4.4441617191939348E-4</v>
+        <v>0</v>
       </c>
       <c r="N27" s="152">
         <f>Input!$E27*M27*1000</f>
-        <v>0.44441617191939348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A28" s="64" t="str">
+      <c r="A28" s="64">
         <f>Input!$A28</f>
-        <v>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.6m)</v>
+        <v>0</v>
       </c>
       <c r="B28" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A28,Input!H$14:H$60)/1000</f>
-        <v>6.6427611626520042E-2</v>
+        <v>0</v>
       </c>
       <c r="C28" s="156"/>
       <c r="D28" s="146">
@@ -13400,37 +12992,37 @@
       </c>
       <c r="F28" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A28,Input!J$14:J$60)/1000</f>
-        <v>4.1787503431617274E-4</v>
+        <v>0</v>
       </c>
       <c r="G28" s="156"/>
       <c r="H28" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A28,Input!L$14:L$60)/1000</f>
-        <v>1.5595208387875674E-2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="156"/>
       <c r="J28" s="162">
         <f t="shared" si="0"/>
-        <v>66.845486660836215</v>
+        <v>0</v>
       </c>
       <c r="K28" s="161"/>
       <c r="L28" s="17"/>
       <c r="M28" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A28,Input!O$14:O$32)/1000</f>
-        <v>6.2214345054853373E-4</v>
+        <v>0</v>
       </c>
       <c r="N28" s="152">
         <f>Input!$E28*M28*1000</f>
-        <v>0.62214345054853371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A29" s="64" t="str">
+      <c r="A29" s="64">
         <f>Input!$A29</f>
-        <v>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.8m)</v>
+        <v>0</v>
       </c>
       <c r="B29" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A29,Input!H$14:H$60)/1000</f>
-        <v>7.0120359170482496E-2</v>
+        <v>0</v>
       </c>
       <c r="C29" s="156"/>
       <c r="D29" s="146">
@@ -13441,37 +13033,37 @@
       </c>
       <c r="F29" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A29,Input!J$14:J$60)/1000</f>
-        <v>4.4110493779863079E-4</v>
+        <v>0</v>
       </c>
       <c r="G29" s="156"/>
       <c r="H29" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A29,Input!L$14:L$60)/1000</f>
-        <v>1.6462154617941836E-2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="156"/>
       <c r="J29" s="162">
         <f t="shared" si="0"/>
-        <v>70.561464108281129</v>
+        <v>0</v>
       </c>
       <c r="K29" s="161"/>
       <c r="L29" s="17"/>
       <c r="M29" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A29,Input!O$14:O$32)/1000</f>
-        <v>6.5672874787823957E-4</v>
+        <v>0</v>
       </c>
       <c r="N29" s="152">
         <f>Input!$E29*M29*1000</f>
-        <v>0.65672874787823954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A30" s="64" t="str">
+      <c r="A30" s="64">
         <f>Input!$A30</f>
-        <v>Square Column:STR - Concrete Column - 480x480mm_Reinforcement - Reinforcement (Height: 3.6m)</v>
+        <v>0</v>
       </c>
       <c r="B30" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A30,Input!H$14:H$60)/1000</f>
-        <v>8.6763875721316094E-2</v>
+        <v>0</v>
       </c>
       <c r="C30" s="156"/>
       <c r="D30" s="146">
@@ -13482,37 +13074,37 @@
       </c>
       <c r="F30" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A30,Input!J$14:J$60)/1000</f>
-        <v>5.4580402119973792E-4</v>
+        <v>0</v>
       </c>
       <c r="G30" s="156"/>
       <c r="H30" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A30,Input!L$14:L$60)/1000</f>
-        <v>2.0369552499061548E-2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="156"/>
       <c r="J30" s="162">
         <f t="shared" si="0"/>
-        <v>87.309679742515826</v>
+        <v>0</v>
       </c>
       <c r="K30" s="161"/>
       <c r="L30" s="17"/>
       <c r="M30" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A30,Input!O$14:O$32)/1000</f>
-        <v>8.1260752422827366E-4</v>
+        <v>0</v>
       </c>
       <c r="N30" s="152">
         <f>Input!$E30*M30*1000</f>
-        <v>0.81260752422827365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A31" s="64" t="str">
+      <c r="A31" s="64">
         <f>Input!$A31</f>
-        <v>Square Column:STR - Concrete Column - 480x480mm_Reinforcement - Reinforcement (Height: 3.8m)</v>
+        <v>0</v>
       </c>
       <c r="B31" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A31,Input!H$14:H$60)/1000</f>
-        <v>9.1586415714989433E-2</v>
+        <v>0</v>
       </c>
       <c r="C31" s="156"/>
       <c r="D31" s="146">
@@ -13523,37 +13115,37 @@
       </c>
       <c r="F31" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A31,Input!J$14:J$60)/1000</f>
-        <v>5.7614109062017191E-4</v>
+        <v>0</v>
       </c>
       <c r="G31" s="156"/>
       <c r="H31" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A31,Input!L$14:L$60)/1000</f>
-        <v>2.1501740068638031E-2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="156"/>
       <c r="J31" s="162">
         <f t="shared" si="0"/>
-        <v>92.162556805609597</v>
+        <v>0</v>
       </c>
       <c r="K31" s="161"/>
       <c r="L31" s="17"/>
       <c r="M31" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A31,Input!O$14:O$32)/1000</f>
-        <v>8.5777415898463172E-4</v>
+        <v>0</v>
       </c>
       <c r="N31" s="152">
         <f>Input!$E31*M31*1000</f>
-        <v>0.85777415898463172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A32" s="64" t="str">
+      <c r="A32" s="64">
         <f>Input!$A32</f>
-        <v>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.6m)</v>
+        <v>0</v>
       </c>
       <c r="B32" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A32,Input!H$14:H$60)/1000</f>
-        <v>0.13557509396530704</v>
+        <v>0</v>
       </c>
       <c r="C32" s="156"/>
       <c r="D32" s="146">
@@ -13564,37 +13156,37 @@
       </c>
       <c r="F32" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A32,Input!J$14:J$60)/1000</f>
-        <v>8.5285991255710202E-4</v>
+        <v>0</v>
       </c>
       <c r="G32" s="156"/>
       <c r="H32" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A32,Input!L$14:L$60)/1000</f>
-        <v>3.1828960741239171E-2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="156"/>
       <c r="J32" s="162">
         <f t="shared" si="0"/>
-        <v>136.42795387786413</v>
+        <v>0</v>
       </c>
       <c r="K32" s="161"/>
       <c r="L32" s="17"/>
       <c r="M32" s="140">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A32,Input!O$14:O$32)/1000</f>
-        <v>1.2697604911982672E-3</v>
+        <v>0</v>
       </c>
       <c r="N32" s="152">
         <f>Input!$E32*M32*1000</f>
-        <v>1.2697604911982672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A33" s="64" t="str">
+      <c r="A33" s="64">
         <f>Input!$A33</f>
-        <v>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.8m)</v>
+        <v>0</v>
       </c>
       <c r="B33" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A33,Input!H$14:H$60)/1000</f>
-        <v>0.14310704363004634</v>
+        <v>0</v>
       </c>
       <c r="C33" s="156"/>
       <c r="D33" s="146">
@@ -13605,17 +13197,17 @@
       </c>
       <c r="F33" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A33,Input!J$14:J$60)/1000</f>
-        <v>9.0024101881027449E-4</v>
+        <v>0</v>
       </c>
       <c r="G33" s="156"/>
       <c r="H33" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A33,Input!L$14:L$60)/1000</f>
-        <v>3.3597236337974686E-2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="156"/>
       <c r="J33" s="162">
         <f t="shared" si="0"/>
-        <v>144.00728464885663</v>
+        <v>0</v>
       </c>
       <c r="K33" s="161"/>
       <c r="L33" s="17"/>
@@ -13629,13 +13221,13 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A34" s="64" t="str">
+      <c r="A34" s="64">
         <f>Input!$A34</f>
-        <v>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.5m)</v>
+        <v>0</v>
       </c>
       <c r="B34" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A34,Input!H$14:H$60)/1000</f>
-        <v>6.458646837513933E-2</v>
+        <v>0</v>
       </c>
       <c r="C34" s="156"/>
       <c r="D34" s="146">
@@ -13646,17 +13238,17 @@
       </c>
       <c r="F34" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A34,Input!J$14:J$60)/1000</f>
-        <v>4.0629298612095279E-4</v>
+        <v>0</v>
       </c>
       <c r="G34" s="156"/>
       <c r="H34" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A34,Input!L$14:L$60)/1000</f>
-        <v>1.5162963242006994E-2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="156"/>
       <c r="J34" s="162">
         <f t="shared" si="0"/>
-        <v>64.992761361260278</v>
+        <v>0</v>
       </c>
       <c r="K34" s="161"/>
       <c r="L34" s="17"/>
@@ -13670,13 +13262,13 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A35" s="64" t="str">
+      <c r="A35" s="64">
         <f>Input!$A35</f>
-        <v>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.5m)</v>
+        <v>0</v>
       </c>
       <c r="B35" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A35,Input!H$14:H$60)/1000</f>
-        <v>0.13180911913293739</v>
+        <v>0</v>
       </c>
       <c r="C35" s="156"/>
       <c r="D35" s="146">
@@ -13687,17 +13279,17 @@
       </c>
       <c r="F35" s="158">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A35,Input!J$14:J$60)/1000</f>
-        <v>8.2916935943051588E-4</v>
+        <v>0</v>
       </c>
       <c r="G35" s="156"/>
       <c r="H35" s="157">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A35,Input!L$14:L$60)/1000</f>
-        <v>3.0944822942871417E-2</v>
+        <v>0</v>
       </c>
       <c r="I35" s="156"/>
       <c r="J35" s="162">
         <f t="shared" si="0"/>
-        <v>132.63828849236788</v>
+        <v>0</v>
       </c>
       <c r="K35" s="161"/>
       <c r="L35" s="17"/>
@@ -13711,9 +13303,9 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A36" s="64" t="str">
+      <c r="A36" s="64">
         <f>Input!$A36</f>
-        <v>Opstropning_60mm:SS04 - Unknown C25/30 (Height: 3.9m)</v>
+        <v>0</v>
       </c>
       <c r="B36" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A36,Input!H$14:H$60)/1000</f>
@@ -13752,9 +13344,9 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A37" s="64" t="str">
+      <c r="A37" s="64">
         <f>Input!$A37</f>
-        <v>Opstropning_60mm:SS04 - Unknown C25/30 (Height: 4.8m)</v>
+        <v>0</v>
       </c>
       <c r="B37" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A37,Input!H$14:H$60)/1000</f>
@@ -13793,9 +13385,9 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A38" s="64" t="str">
+      <c r="A38" s="64">
         <f>Input!$A38</f>
-        <v>Opstropning_60mm:SS04 - Unknown C25/30 (Height: 6.0m)</v>
+        <v>0</v>
       </c>
       <c r="B38" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A38,Input!H$14:H$60)/1000</f>
@@ -13834,9 +13426,9 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A39" s="64" t="str">
+      <c r="A39" s="64">
         <f>Input!$A39</f>
-        <v>SHS-Square Hollow Section-Column:SS02 - Unknown C25/30 (Height: 1.6m)</v>
+        <v>0</v>
       </c>
       <c r="B39" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A39,Input!H$14:H$60)/1000</f>
@@ -13875,9 +13467,9 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A40" s="64" t="str">
+      <c r="A40" s="64">
         <f>Input!$A40</f>
-        <v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.9m)</v>
+        <v>0</v>
       </c>
       <c r="B40" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A40,Input!H$14:H$60)/1000</f>
@@ -13916,9 +13508,9 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A41" s="64" t="str">
+      <c r="A41" s="64">
         <f>Input!$A41</f>
-        <v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.1m)</v>
+        <v>0</v>
       </c>
       <c r="B41" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A41,Input!H$14:H$60)/1000</f>
@@ -13957,9 +13549,9 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A42" s="64" t="str">
+      <c r="A42" s="64">
         <f>Input!$A42</f>
-        <v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.7m)</v>
+        <v>0</v>
       </c>
       <c r="B42" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A42,Input!H$14:H$60)/1000</f>
@@ -13998,9 +13590,9 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A43" s="64" t="str">
+      <c r="A43" s="64">
         <f>Input!$A43</f>
-        <v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.2m)</v>
+        <v>0</v>
       </c>
       <c r="B43" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A43,Input!H$14:H$60)/1000</f>
@@ -14039,9 +13631,9 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A44" s="64" t="str">
+      <c r="A44" s="64">
         <f>Input!$A44</f>
-        <v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 0.9m)</v>
+        <v>0</v>
       </c>
       <c r="B44" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A44,Input!H$14:H$60)/1000</f>
@@ -14080,9 +13672,9 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A45" s="64" t="str">
+      <c r="A45" s="64">
         <f>Input!$A45</f>
-        <v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.0m)</v>
+        <v>0</v>
       </c>
       <c r="B45" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A45,Input!H$14:H$60)/1000</f>
@@ -14121,9 +13713,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A46" s="64" t="str">
+      <c r="A46" s="64">
         <f>Input!$A46</f>
-        <v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 0.5m)</v>
+        <v>0</v>
       </c>
       <c r="B46" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A46,Input!H$14:H$60)/1000</f>
@@ -14162,9 +13754,9 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A47" s="64" t="str">
+      <c r="A47" s="64">
         <f>Input!$A47</f>
-        <v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.5m)</v>
+        <v>0</v>
       </c>
       <c r="B47" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A47,Input!H$14:H$60)/1000</f>
@@ -14203,9 +13795,9 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A48" s="64" t="str">
+      <c r="A48" s="64">
         <f>Input!$A48</f>
-        <v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.4m)</v>
+        <v>0</v>
       </c>
       <c r="B48" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A48,Input!H$14:H$60)/1000</f>
@@ -14244,9 +13836,9 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A49" s="64" t="str">
+      <c r="A49" s="64">
         <f>Input!$A49</f>
-        <v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 0.8m)</v>
+        <v>0</v>
       </c>
       <c r="B49" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A49,Input!H$14:H$60)/1000</f>
@@ -14285,9 +13877,9 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A50" s="64" t="str">
+      <c r="A50" s="64">
         <f>Input!$A50</f>
-        <v>SHS-Square Hollow Section-Column:SS03 - Unknown C25/30 (Height: 1.3m)</v>
+        <v>0</v>
       </c>
       <c r="B50" s="159">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A50,Input!H$14:H$60)/1000</f>
@@ -14334,7 +13926,7 @@
       </c>
       <c r="B51" s="160">
         <f>SUM(B14:B50)</f>
-        <v>2.2394805426602611</v>
+        <v>0</v>
       </c>
       <c r="C51" s="117">
         <f>SUM(C14:C50)</f>
@@ -14349,7 +13941,7 @@
       </c>
       <c r="F51" s="142">
         <f t="shared" ref="F51" si="2">SUM(F14:F50)</f>
-        <v>0.1291701926228126</v>
+        <v>0</v>
       </c>
       <c r="G51" s="117">
         <f>SUM(G14:G50)</f>
@@ -14357,7 +13949,7 @@
       </c>
       <c r="H51" s="142">
         <f t="shared" ref="H51" si="3">SUM(H14:H50)</f>
-        <v>0.20384241658014823</v>
+        <v>0</v>
       </c>
       <c r="I51" s="117">
         <f>SUM(I14:I50)</f>
@@ -14365,7 +13957,7 @@
       </c>
       <c r="J51" s="20">
         <f>SUM(J14:J50)</f>
-        <v>2368.6507352830731</v>
+        <v>0</v>
       </c>
       <c r="K51" s="117">
         <f>SUM(K14:K50)</f>
@@ -14374,11 +13966,11 @@
       <c r="L51" s="21"/>
       <c r="M51" s="141">
         <f>SUM(M14:M50)</f>
-        <v>9.7193114677669151E-3</v>
+        <v>0</v>
       </c>
       <c r="N51" s="118">
         <f>SUM(N14:N50)</f>
-        <v>214.98197045763789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="14">
@@ -14508,21 +14100,21 @@
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
-      <c r="M2" s="221" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="222"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="222"/>
-      <c r="Q2" s="222"/>
-      <c r="R2" s="222"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="222"/>
-      <c r="V2" s="222"/>
-      <c r="W2" s="222"/>
-      <c r="X2" s="223"/>
-      <c r="Y2" s="224" t="s">
+      <c r="M2" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="201" t="s">
         <v>1</v>
       </c>
       <c r="Z2" s="40"/>
@@ -14531,73 +14123,73 @@
     </row>
     <row r="3" spans="1:34" ht="12.75" customHeight="1" thickBot="1">
       <c r="A3" s="16"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="206"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="233"/>
+      <c r="G3" s="234"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
       <c r="L3" s="43"/>
-      <c r="M3" s="227" t="s">
+      <c r="M3" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="228"/>
-      <c r="O3" s="228"/>
-      <c r="P3" s="228"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="228"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="230" t="s">
+      <c r="N3" s="205"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="231"/>
-      <c r="V3" s="231"/>
-      <c r="W3" s="232"/>
-      <c r="X3" s="233" t="s">
+      <c r="U3" s="208"/>
+      <c r="V3" s="208"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="225"/>
+      <c r="Y3" s="202"/>
       <c r="Z3" s="37"/>
-      <c r="AA3" s="202" t="s">
+      <c r="AA3" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="202" t="s">
+      <c r="AB3" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="AD3" s="217" t="s">
+      <c r="AD3" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="219" t="s">
+      <c r="AE3" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="AF3" s="219" t="s">
+      <c r="AF3" s="224" t="s">
         <v>39</v>
       </c>
-      <c r="AG3" s="219" t="s">
+      <c r="AG3" s="224" t="s">
         <v>40</v>
       </c>
-      <c r="AH3" s="215" t="s">
+      <c r="AH3" s="220" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="226" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="241" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="209" t="s">
+      <c r="D4" s="237" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="211" t="s">
+      <c r="E4" s="239" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="105" t="s">
@@ -14606,70 +14198,70 @@
       <c r="G4" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="H4" s="199" t="s">
+      <c r="H4" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="200" t="s">
+      <c r="I4" s="228" t="s">
         <v>47</v>
       </c>
       <c r="J4" s="45"/>
       <c r="K4" s="45"/>
-      <c r="L4" s="201" t="s">
+      <c r="L4" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="235" t="s">
+      <c r="M4" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="236"/>
-      <c r="O4" s="236"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="238" t="s">
+      <c r="N4" s="213"/>
+      <c r="O4" s="213"/>
+      <c r="P4" s="214"/>
+      <c r="Q4" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="239"/>
-      <c r="S4" s="240" t="s">
+      <c r="R4" s="216"/>
+      <c r="S4" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="242" t="s">
+      <c r="T4" s="219" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="239"/>
-      <c r="V4" s="238" t="s">
+      <c r="U4" s="216"/>
+      <c r="V4" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="239"/>
-      <c r="X4" s="234"/>
-      <c r="Y4" s="226"/>
+      <c r="W4" s="216"/>
+      <c r="X4" s="211"/>
+      <c r="Y4" s="203"/>
       <c r="Z4" s="44"/>
-      <c r="AA4" s="203"/>
-      <c r="AB4" s="203"/>
-      <c r="AD4" s="218"/>
-      <c r="AE4" s="220"/>
-      <c r="AF4" s="220"/>
-      <c r="AG4" s="220"/>
-      <c r="AH4" s="216"/>
+      <c r="AA4" s="231"/>
+      <c r="AB4" s="231"/>
+      <c r="AD4" s="223"/>
+      <c r="AE4" s="225"/>
+      <c r="AF4" s="225"/>
+      <c r="AG4" s="225"/>
+      <c r="AH4" s="221"/>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" s="198"/>
-      <c r="B5" s="208"/>
-      <c r="C5" s="214"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="212"/>
+      <c r="A5" s="226"/>
+      <c r="B5" s="236"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="240"/>
       <c r="F5" s="109" t="s">
         <v>218</v>
       </c>
       <c r="G5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="228"/>
       <c r="J5" s="45" t="s">
         <v>48</v>
       </c>
       <c r="K5" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="L5" s="201"/>
+      <c r="L5" s="229"/>
       <c r="M5" s="47" t="s">
         <v>13</v>
       </c>
@@ -14688,7 +14280,7 @@
       <c r="R5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="241"/>
+      <c r="S5" s="218"/>
       <c r="T5" s="50" t="s">
         <v>18</v>
       </c>
@@ -26946,21 +26538,6 @@
     <sortCondition descending="1" ref="I21:I126"/>
   </sortState>
   <mergeCells count="26">
-    <mergeCell ref="M2:X2"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="M3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -26972,6 +26549,21 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="M2:X2"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
